--- a/biology/Médecine/Huggies/Huggies.xlsx
+++ b/biology/Médecine/Huggies/Huggies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kimberly-Clark produit sous la marque Huggies des articles jetables destinés à l'éducation à la propreté : couches-culottes, lingettes et alèses jetables.
@@ -512,7 +524,9 @@
           <t>Historique des faits marquants de la compagnie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1968 : Kimberly-Clark teste le marché pour la première fois sous le nom Kimbies.
 1978 : La marque Huggies est commercialisée pour la première fois, remplaçant son nom d'origine Kimbies.
@@ -550,9 +564,11 @@
           <t>Présence dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque est présente de façon mondiale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque est présente de façon mondiale.
 </t>
         </is>
       </c>
